--- a/TODOLIST.xlsx
+++ b/TODOLIST.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>TEEN APP</t>
   </si>
@@ -37,10 +37,7 @@
     <t>THEME</t>
   </si>
   <si>
-    <t>QR TRANS</t>
-  </si>
-  <si>
-    <t>ACC NUMBER</t>
+    <t>QR</t>
   </si>
   <si>
     <t>ADD FRIEND</t>
@@ -50,12 +47,6 @@
   </si>
   <si>
     <t>NICKNAME</t>
-  </si>
-  <si>
-    <t>FORGET PASS</t>
-  </si>
-  <si>
-    <t>SIGN UP</t>
   </si>
 </sst>
 </file>
@@ -63,7 +54,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +65,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -105,22 +102,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="16" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="16" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -433,16 +433,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -465,7 +465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -479,151 +479,141 @@
         <v>45827</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="6">
         <v>45828</v>
       </c>
       <c r="D4" s="5">
         <v>45841</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="6">
         <v>45828</v>
       </c>
       <c r="D5" s="5">
         <v>45841</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
         <v>45828</v>
       </c>
       <c r="D6" s="5">
         <v>45841</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3">
-        <v>45828</v>
+      <c r="C7" s="6">
+        <v>45833</v>
       </c>
       <c r="D7" s="5">
         <v>45841</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="6">
         <v>45833</v>
       </c>
       <c r="D8" s="5">
         <v>45841</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="6">
         <v>45833</v>
       </c>
       <c r="D9" s="5">
         <v>45841</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="3">
-        <v>45833</v>
-      </c>
-      <c r="D10" s="5">
-        <v>45841</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+      <c r="D11" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="B12" s="2"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+      <c r="D12" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
@@ -631,7 +621,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
       <c r="A17" s="4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
@@ -639,7 +629,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
       <c r="A18" s="4">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
@@ -647,7 +637,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
       <c r="A19" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
@@ -655,7 +645,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
       <c r="A20" s="4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
@@ -663,7 +653,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
       <c r="A21" s="4">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
@@ -671,7 +661,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
       <c r="A22" s="4">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
@@ -679,7 +669,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
       <c r="A23" s="4">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
@@ -687,35 +677,11 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
       <c r="A24" s="4">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="4">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="4">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="4">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
